--- a/SwarmPackagePy-master/resumenTiemposOrdenadosMemoria.xlsx
+++ b/SwarmPackagePy-master/resumenTiemposOrdenadosMemoria.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tfg\SwarmPackagePy-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE09A965-E571-44D6-B1EC-C2EBEECE30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A712D63-C8D6-4111-AD82-1CB1EC21061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E36ED2C6-363A-44E5-90AE-F3973AA1D400}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E36ED2C6-363A-44E5-90AE-F3973AA1D400}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PALETA 32 COLORES" sheetId="2" r:id="rId2"/>
+    <sheet name="PALETA 64 COLORES" sheetId="3" r:id="rId3"/>
+    <sheet name="PALETA 128 COLORES" sheetId="4" r:id="rId4"/>
+    <sheet name="PALETA 256 COLORES" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -109,6 +113,27 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>IQI</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>SSIM</t>
+  </si>
+  <si>
+    <t>FSIM</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>ABA_SSIM</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -277,11 +302,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -308,7 +430,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +569,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -752,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9EA2D1-AAB9-44F9-843A-621BD573CDC5}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,22 +917,6 @@
       <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -812,22 +938,6 @@
         <v>378.43</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -847,22 +957,22 @@
         <v>46.21</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -884,22 +994,6 @@
         <v>422.97</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -919,22 +1013,22 @@
         <v>9.33</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -956,22 +1050,6 @@
         <v>501.44</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -991,22 +1069,22 @@
         <v>10.82</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1024,22 +1102,6 @@
         <v>440.52</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -1056,22 +1118,22 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -1778,6 +1840,4153 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66348C92-4F5E-43E5-A521-84702707FC6D}">
+  <dimension ref="A1:X59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:F59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1436.92</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1364.11</v>
+      </c>
+      <c r="E2" s="19">
+        <v>2128.31</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1839.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>536.01</v>
+      </c>
+      <c r="D3" s="26">
+        <v>518.41999999999996</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1135.22</v>
+      </c>
+      <c r="F3" s="27">
+        <v>980.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48.37</v>
+      </c>
+      <c r="D4" s="19">
+        <v>48.73</v>
+      </c>
+      <c r="E4" s="19">
+        <v>58.93</v>
+      </c>
+      <c r="F4" s="22">
+        <v>55.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10.51</v>
+      </c>
+      <c r="D5" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="E5" s="26">
+        <v>14.21</v>
+      </c>
+      <c r="F5" s="27">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7349</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.72319999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.77E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.3548</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1436.92</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1346.07</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1796.73</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>536.01</v>
+      </c>
+      <c r="D15" s="26">
+        <v>380.1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>670.53</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="D16" s="19">
+        <v>48.76</v>
+      </c>
+      <c r="E16" s="19">
+        <v>54.52</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8.52</v>
+      </c>
+      <c r="D17" s="26">
+        <v>8.44</v>
+      </c>
+      <c r="E17" s="26">
+        <v>10.01</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.72570000000000001</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.745</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>5.96E-2</v>
+      </c>
+      <c r="E23" s="30">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1856.15</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1830.05</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2200.41</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2118.8000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>474.07</v>
+      </c>
+      <c r="D27" s="26">
+        <v>455.78</v>
+      </c>
+      <c r="E27" s="26">
+        <v>846.21</v>
+      </c>
+      <c r="F27" s="27">
+        <v>793.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>58.24</v>
+      </c>
+      <c r="D28" s="19">
+        <v>58.64</v>
+      </c>
+      <c r="E28" s="19">
+        <v>62.9</v>
+      </c>
+      <c r="F28" s="22">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="D29" s="26">
+        <v>8.07</v>
+      </c>
+      <c r="E29" s="26">
+        <v>10.56</v>
+      </c>
+      <c r="F29" s="27">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.6885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>9.11E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.83109999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="D33" s="26">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="F33" s="27">
+        <v>4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.32419999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="28">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="F35" s="31">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>964.49</v>
+      </c>
+      <c r="D38" s="19">
+        <v>919.31</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1391.81</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1130.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7">
+        <v>342.64</v>
+      </c>
+      <c r="D39" s="26">
+        <v>330.68</v>
+      </c>
+      <c r="E39" s="26">
+        <v>604.55999999999995</v>
+      </c>
+      <c r="F39" s="27">
+        <v>570.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39.26</v>
+      </c>
+      <c r="D40" s="19">
+        <v>39.79</v>
+      </c>
+      <c r="E40" s="19">
+        <v>47.32</v>
+      </c>
+      <c r="F40" s="22">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>7.92</v>
+      </c>
+      <c r="D41" s="26">
+        <v>8.06</v>
+      </c>
+      <c r="E41" s="26">
+        <v>10.7</v>
+      </c>
+      <c r="F41" s="27">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.77310000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="D43" s="26">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="F43" s="27">
+        <v>8.0100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.876</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.87439999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D45" s="26">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E45" s="26">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="F45" s="27">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.37780000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="28">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E47" s="30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F47" s="31">
+        <v>6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1247.75</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1197.97</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1830.63</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1685.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7">
+        <v>375.8</v>
+      </c>
+      <c r="D51" s="26">
+        <v>370.21</v>
+      </c>
+      <c r="E51" s="26">
+        <v>724.13</v>
+      </c>
+      <c r="F51" s="27">
+        <v>599.41999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44.51</v>
+      </c>
+      <c r="D52" s="19">
+        <v>45.32</v>
+      </c>
+      <c r="E52" s="19">
+        <v>53.89</v>
+      </c>
+      <c r="F52" s="22">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7">
+        <v>8.75</v>
+      </c>
+      <c r="D53" s="26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E53" s="26">
+        <v>10.9</v>
+      </c>
+      <c r="F53" s="27">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.74180000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7">
+        <v>7.51E-2</v>
+      </c>
+      <c r="D55" s="26">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E55" s="26">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="F55" s="27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="7">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="D57" s="26">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="E57" s="26">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="F57" s="27">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="28">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D59" s="30">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="E59" s="30">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D93C5A-67BC-4CB5-BC20-43574179D4A1}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1012.17</v>
+      </c>
+      <c r="D2" s="19">
+        <v>983.89</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1451.79</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1280.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>337.13</v>
+      </c>
+      <c r="D3" s="26">
+        <v>339.12</v>
+      </c>
+      <c r="E3" s="26">
+        <v>734.78</v>
+      </c>
+      <c r="F3" s="27">
+        <v>632.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41.15</v>
+      </c>
+      <c r="D4" s="19">
+        <v>41.85</v>
+      </c>
+      <c r="E4" s="19">
+        <v>48.82</v>
+      </c>
+      <c r="F4" s="22">
+        <v>46.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D5" s="26">
+        <v>8.44</v>
+      </c>
+      <c r="E5" s="26">
+        <v>10.94</v>
+      </c>
+      <c r="F5" s="27">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.75380000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.43E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>8.6900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.87370000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="26">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3906</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.4037</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.38080000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>931.1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>907.14</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1184.48</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="26">
+        <v>233.97</v>
+      </c>
+      <c r="E15" s="26">
+        <v>418.25</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>39.51</v>
+      </c>
+      <c r="D16" s="19">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="E16" s="19">
+        <v>44.53</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="D17" s="26">
+        <v>6.53</v>
+      </c>
+      <c r="E17" s="26">
+        <v>7.92</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.7651</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.38990000000000002</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.3957</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="D23" s="30">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="E23" s="30">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1193.71</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1183.71</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1397.99</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1369.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>281.49</v>
+      </c>
+      <c r="D27" s="26">
+        <v>275.74</v>
+      </c>
+      <c r="E27" s="26">
+        <v>499.08</v>
+      </c>
+      <c r="F27" s="27">
+        <v>504.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46.87</v>
+      </c>
+      <c r="D28" s="19">
+        <v>47.23</v>
+      </c>
+      <c r="E28" s="19">
+        <v>50.3</v>
+      </c>
+      <c r="F28" s="22">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="D29" s="26">
+        <v>6.12</v>
+      </c>
+      <c r="E29" s="26">
+        <v>7.57</v>
+      </c>
+      <c r="F29" s="27">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>8.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.86729999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D33" s="26">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4.53E-2</v>
+      </c>
+      <c r="F33" s="27">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.3659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="F35" s="31">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>695.21</v>
+      </c>
+      <c r="D38" s="19">
+        <v>669.31</v>
+      </c>
+      <c r="E38" s="19">
+        <v>974.36</v>
+      </c>
+      <c r="F38" s="22">
+        <v>826.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7">
+        <v>230.81</v>
+      </c>
+      <c r="D39" s="26">
+        <v>225.26</v>
+      </c>
+      <c r="E39" s="26">
+        <v>400.46</v>
+      </c>
+      <c r="F39" s="27">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D40" s="19">
+        <v>34.14</v>
+      </c>
+      <c r="E40" s="19">
+        <v>39.89</v>
+      </c>
+      <c r="F40" s="22">
+        <v>36.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>6.39</v>
+      </c>
+      <c r="D41" s="26">
+        <v>6.58</v>
+      </c>
+      <c r="E41" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="F41" s="27">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.7994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="D43" s="26">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="F43" s="27">
+        <v>7.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.8972</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.89649999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D45" s="26">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="E45" s="26">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="F45" s="27">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.41210000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="28">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="E47" s="30">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F47" s="31">
+        <v>6.5100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>846.95</v>
+      </c>
+      <c r="D50" s="19">
+        <v>811.1</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1240.6199999999999</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1187.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7">
+        <v>232.21</v>
+      </c>
+      <c r="D51" s="26">
+        <v>230.12</v>
+      </c>
+      <c r="E51" s="26">
+        <v>525.21</v>
+      </c>
+      <c r="F51" s="27">
+        <v>427.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>37</v>
+      </c>
+      <c r="D52" s="19">
+        <v>37.36</v>
+      </c>
+      <c r="E52" s="19">
+        <v>44.34</v>
+      </c>
+      <c r="F52" s="22">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7">
+        <v>6.99</v>
+      </c>
+      <c r="D53" s="26">
+        <v>6.91</v>
+      </c>
+      <c r="E53" s="26">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F53" s="27">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="D55" s="26">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="E55" s="26">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="F55" s="27">
+        <v>7.22E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0.87629999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="7">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D57" s="26">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="E57" s="26">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="F57" s="27">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="28">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="D59" s="30">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="E59" s="30">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>6.3399999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F694A5F-E4A2-4036-AA5C-69884F7DC12B}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>699.88</v>
+      </c>
+      <c r="D2" s="19">
+        <v>679.69</v>
+      </c>
+      <c r="E2" s="19">
+        <v>977.15</v>
+      </c>
+      <c r="F2" s="22">
+        <v>855.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>206.99</v>
+      </c>
+      <c r="D3" s="26">
+        <v>203.9</v>
+      </c>
+      <c r="E3" s="26">
+        <v>549.38</v>
+      </c>
+      <c r="F3" s="27">
+        <v>403.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D4" s="19">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="E4" s="19">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="F4" s="22">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.38</v>
+      </c>
+      <c r="D5" s="26">
+        <v>6.2</v>
+      </c>
+      <c r="E5" s="26">
+        <v>8.73</v>
+      </c>
+      <c r="F5" s="27">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.78359999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.42070000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>619.30999999999995</v>
+      </c>
+      <c r="D14" s="19">
+        <v>605.47</v>
+      </c>
+      <c r="E14" s="19">
+        <v>791.07</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>150.32</v>
+      </c>
+      <c r="D15" s="26">
+        <v>146.58000000000001</v>
+      </c>
+      <c r="E15" s="26">
+        <v>325.29000000000002</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="D16" s="19">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="E16" s="19">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.37</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5.18</v>
+      </c>
+      <c r="E17" s="26">
+        <v>6.8</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="E23" s="30">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>778.23</v>
+      </c>
+      <c r="D26" s="19">
+        <v>765.1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>878.51</v>
+      </c>
+      <c r="F26" s="22">
+        <v>884.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>173.69</v>
+      </c>
+      <c r="D27" s="26">
+        <v>168.75</v>
+      </c>
+      <c r="E27" s="26">
+        <v>280.87</v>
+      </c>
+      <c r="F27" s="27">
+        <v>311.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>37.93</v>
+      </c>
+      <c r="D28" s="19">
+        <v>38.06</v>
+      </c>
+      <c r="E28" s="19">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="F28" s="22">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D29" s="26">
+        <v>4.59</v>
+      </c>
+      <c r="E29" s="26">
+        <v>5.53</v>
+      </c>
+      <c r="F29" s="27">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.76910000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>8.48E-2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.89680000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D33" s="26">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.41370000000000001</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.4148</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.40849999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="28">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="F35" s="31">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>497.82</v>
+      </c>
+      <c r="D38" s="19">
+        <v>482.99</v>
+      </c>
+      <c r="E38" s="19">
+        <v>678.51</v>
+      </c>
+      <c r="F38" s="22">
+        <v>602.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7">
+        <v>152.11000000000001</v>
+      </c>
+      <c r="D39" s="26">
+        <v>149.56</v>
+      </c>
+      <c r="E39" s="26">
+        <v>275.72000000000003</v>
+      </c>
+      <c r="F39" s="27">
+        <v>232.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
+        <v>28.74</v>
+      </c>
+      <c r="D40" s="19">
+        <v>29.13</v>
+      </c>
+      <c r="E40" s="19">
+        <v>33.47</v>
+      </c>
+      <c r="F40" s="22">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="D41" s="26">
+        <v>5.08</v>
+      </c>
+      <c r="E41" s="26">
+        <v>6.94</v>
+      </c>
+      <c r="F41" s="27">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.8236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D43" s="26">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="F43" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.91610000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D45" s="26">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E45" s="26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F45" s="27">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.4667</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.44950000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="28">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="E47" s="30">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F47" s="31">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>563.33000000000004</v>
+      </c>
+      <c r="D50" s="19">
+        <v>547.97</v>
+      </c>
+      <c r="E50" s="19">
+        <v>849.04</v>
+      </c>
+      <c r="F50" s="22">
+        <v>831.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7">
+        <v>142.86000000000001</v>
+      </c>
+      <c r="D51" s="26">
+        <v>145.26</v>
+      </c>
+      <c r="E51" s="26">
+        <v>405.78</v>
+      </c>
+      <c r="F51" s="27">
+        <v>289.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30.35</v>
+      </c>
+      <c r="D52" s="19">
+        <v>30.8</v>
+      </c>
+      <c r="E52" s="19">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="F52" s="22">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7">
+        <v>5.53</v>
+      </c>
+      <c r="D53" s="26">
+        <v>5.55</v>
+      </c>
+      <c r="E53" s="26">
+        <v>7.92</v>
+      </c>
+      <c r="F53" s="27">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="D55" s="26">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="E55" s="26">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F55" s="27">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0.90180000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="7">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="D57" s="26">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E57" s="26">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F57" s="27">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0.42209999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="28">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D59" s="30">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="E59" s="30">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DE4FC-7760-4844-8363-64103D286E38}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>469.81</v>
+      </c>
+      <c r="D2" s="19">
+        <v>458.49</v>
+      </c>
+      <c r="E2" s="19">
+        <v>629.88</v>
+      </c>
+      <c r="F2" s="22">
+        <v>578.69000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>123.64</v>
+      </c>
+      <c r="D3" s="26">
+        <v>120.76</v>
+      </c>
+      <c r="E3" s="26">
+        <v>312.31</v>
+      </c>
+      <c r="F3" s="27">
+        <v>283.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28.83</v>
+      </c>
+      <c r="D4" s="19">
+        <v>29.05</v>
+      </c>
+      <c r="E4" s="19">
+        <v>32.46</v>
+      </c>
+      <c r="F4" s="22">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D5" s="26">
+        <v>4.53</v>
+      </c>
+      <c r="E5" s="26">
+        <v>6.33</v>
+      </c>
+      <c r="F5" s="27">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8196</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.81289999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.9234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.4834</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.46360000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6.5799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>411.27</v>
+      </c>
+      <c r="D14" s="19">
+        <v>398.46</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>92.76</v>
+      </c>
+      <c r="D15" s="26">
+        <v>91.01</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="D16" s="19">
+        <v>26.68</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.8337</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.04E-2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>3.04E-2</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.4834</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>499.61</v>
+      </c>
+      <c r="D26" s="19">
+        <v>493.08</v>
+      </c>
+      <c r="E26" s="19">
+        <v>564.71</v>
+      </c>
+      <c r="F26" s="22">
+        <v>568.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>104.27</v>
+      </c>
+      <c r="D27" s="26">
+        <v>102.22</v>
+      </c>
+      <c r="E27" s="26">
+        <v>192.26</v>
+      </c>
+      <c r="F27" s="27">
+        <v>194.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30.54</v>
+      </c>
+      <c r="D28" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="E28" s="19">
+        <v>32.25</v>
+      </c>
+      <c r="F28" s="22">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D29" s="26">
+        <v>3.45</v>
+      </c>
+      <c r="E29" s="26">
+        <v>4.55</v>
+      </c>
+      <c r="F29" s="27">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.80640000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.9264</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.92249999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D33" s="26">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3.39E-2</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.4642</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.4652</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.45850000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="28">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="F35" s="31">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>351.16</v>
+      </c>
+      <c r="D38" s="19">
+        <v>343.55</v>
+      </c>
+      <c r="E38" s="19">
+        <v>464.52</v>
+      </c>
+      <c r="F38" s="22">
+        <v>428.96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7">
+        <v>97.21</v>
+      </c>
+      <c r="D39" s="26">
+        <v>96.6</v>
+      </c>
+      <c r="E39" s="26">
+        <v>195.78</v>
+      </c>
+      <c r="F39" s="27">
+        <v>152.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1">
+        <v>24.29</v>
+      </c>
+      <c r="D40" s="19">
+        <v>24.63</v>
+      </c>
+      <c r="E40" s="19">
+        <v>27.7</v>
+      </c>
+      <c r="F40" s="22">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="D41" s="26">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E41" s="26">
+        <v>5.71</v>
+      </c>
+      <c r="F41" s="27">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.8579</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.84819999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="D43" s="26">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="F43" s="27">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2.92E-2</v>
+      </c>
+      <c r="D45" s="26">
+        <v>2.92E-2</v>
+      </c>
+      <c r="E45" s="26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F45" s="27">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.4904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="28">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="E47" s="30">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="F47" s="31">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <v>375.47</v>
+      </c>
+      <c r="D50" s="19">
+        <v>363.4</v>
+      </c>
+      <c r="E50" s="19">
+        <v>569.55999999999995</v>
+      </c>
+      <c r="F50" s="22">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7">
+        <v>91.17</v>
+      </c>
+      <c r="D51" s="26">
+        <v>90.58</v>
+      </c>
+      <c r="E51" s="26">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="F51" s="27">
+        <v>211.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="D52" s="19">
+        <v>25.13</v>
+      </c>
+      <c r="E52" s="19">
+        <v>29.59</v>
+      </c>
+      <c r="F52" s="22">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="D53" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E53" s="26">
+        <v>6.79</v>
+      </c>
+      <c r="F53" s="27">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.8478</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.8387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="D55" s="26">
+        <v>5.62E-2</v>
+      </c>
+      <c r="E55" s="26">
+        <v>5.33E-2</v>
+      </c>
+      <c r="F55" s="27">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0.92349999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="7">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D57" s="26">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="E57" s="26">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F57" s="27">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0.46949999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="28">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="D59" s="30">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="E59" s="30">
+        <v>6.54E-2</v>
+      </c>
+      <c r="F59" s="31">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1962,18 +6171,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1995,6 +6204,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF59BDCD-6EC9-424C-9DD8-5D364BB293F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED00149-61EE-43A5-8FC4-101881B88E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9503daf0-4235-45b5-ae17-108fab47f5a3"/>
@@ -2008,12 +6225,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF59BDCD-6EC9-424C-9DD8-5D364BB293F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>